--- a/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_CR.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_CR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\1_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7194D4E-2247-4BE4-B16C-78D493C1407E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928636-484A-4C73-8B5A-01BB9519D841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="1650" windowWidth="21600" windowHeight="11370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1014,318 +1025,318 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>74.074071645736694</v>
+        <v>79.894179105758667</v>
       </c>
       <c r="E2">
-        <v>73.015874624252319</v>
+        <v>82.804232835769653</v>
       </c>
       <c r="F2">
-        <v>78.042328357696533</v>
+        <v>82.275134325027466</v>
       </c>
       <c r="G2">
-        <v>74.603176116943359</v>
+        <v>80.423277616500854</v>
       </c>
       <c r="H2">
-        <v>82.804232835769653</v>
+        <v>79.365080595016479</v>
       </c>
       <c r="I2">
-        <v>80.901855230331421</v>
+        <v>83.554375171661377</v>
       </c>
       <c r="J2">
         <v>82.493370771408081</v>
       </c>
       <c r="K2">
-        <v>77.984082698822021</v>
+        <v>78.779840469360352</v>
       </c>
       <c r="L2">
-        <v>78.514587879180908</v>
+        <v>83.02386999130249</v>
       </c>
       <c r="M2">
-        <v>74.27055835723877</v>
+        <v>81.432360410690308</v>
       </c>
       <c r="N2">
-        <v>77.670413851737976</v>
+        <v>81.404572129249573</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <v>81.481480598449707</v>
+        <v>82.53968358039856</v>
       </c>
       <c r="E3">
-        <v>77.777779102325439</v>
+        <v>82.275134325027466</v>
       </c>
       <c r="F3">
-        <v>73.280423879623413</v>
+        <v>80.687832832336426</v>
       </c>
       <c r="G3">
         <v>81.481480598449707</v>
       </c>
       <c r="H3">
-        <v>73.280423879623413</v>
+        <v>78.571426868438721</v>
       </c>
       <c r="I3">
-        <v>75.596815347671509</v>
+        <v>80.901855230331421</v>
       </c>
       <c r="J3">
-        <v>77.188330888748169</v>
+        <v>82.228118181228638</v>
       </c>
       <c r="K3">
-        <v>73.209547996520996</v>
+        <v>82.758623361587524</v>
       </c>
       <c r="L3">
-        <v>82.493370771408081</v>
+        <v>79.840850830078125</v>
       </c>
       <c r="M3">
-        <v>75.862067937850952</v>
+        <v>82.758623361587524</v>
       </c>
       <c r="N3">
-        <v>77.165172100067139</v>
+        <v>81.404362916946411</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
+        <v>80.158728361129761</v>
+      </c>
+      <c r="E4">
+        <v>77.777779102325439</v>
+      </c>
+      <c r="F4">
+        <v>80.158728361129761</v>
+      </c>
+      <c r="G4">
+        <v>79.894179105758667</v>
+      </c>
+      <c r="H4">
+        <v>85.71428656578064</v>
+      </c>
+      <c r="I4">
+        <v>81.167107820510864</v>
+      </c>
+      <c r="J4">
+        <v>80.901855230331421</v>
+      </c>
+      <c r="K4">
+        <v>80.636602640151978</v>
+      </c>
+      <c r="L4">
+        <v>81.432360410690308</v>
+      </c>
+      <c r="M4">
+        <v>80.106103420257568</v>
+      </c>
+      <c r="N4">
+        <v>80.794773101806641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>78.835976123809814</v>
+      </c>
+      <c r="E5">
+        <v>81.481480598449707</v>
+      </c>
+      <c r="F5">
+        <v>79.629629850387573</v>
+      </c>
+      <c r="G5">
+        <v>75.661373138427734</v>
+      </c>
+      <c r="H5">
+        <v>76.984125375747681</v>
+      </c>
+      <c r="I5">
+        <v>83.289122581481934</v>
+      </c>
+      <c r="J5">
+        <v>81.167107820510864</v>
+      </c>
+      <c r="K5">
+        <v>79.045093059539795</v>
+      </c>
+      <c r="L5">
+        <v>80.636602640151978</v>
+      </c>
+      <c r="M5">
+        <v>80.901855230331421</v>
+      </c>
+      <c r="N5">
+        <v>79.76323664188385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>72.222220897674561</v>
-      </c>
-      <c r="E4">
-        <v>71.164023876190186</v>
-      </c>
-      <c r="F4">
-        <v>81.481480598449707</v>
-      </c>
-      <c r="G4">
-        <v>76.984125375747681</v>
-      </c>
-      <c r="H4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>79.365080595016479</v>
+      </c>
+      <c r="E6">
+        <v>78.835976123809814</v>
+      </c>
+      <c r="F6">
+        <v>78.042328357696533</v>
+      </c>
+      <c r="G6">
+        <v>77.513229846954346</v>
+      </c>
+      <c r="H6">
         <v>81.216931343078613</v>
       </c>
-      <c r="I4">
-        <v>72.679042816162109</v>
-      </c>
-      <c r="J4">
-        <v>77.984082698822021</v>
-      </c>
-      <c r="K4">
-        <v>75.331562757492065</v>
-      </c>
-      <c r="L4">
-        <v>77.453583478927612</v>
-      </c>
-      <c r="M4">
-        <v>77.984082698822021</v>
-      </c>
-      <c r="N4">
-        <v>76.450113654136658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>75.396823883056641</v>
-      </c>
-      <c r="E5">
-        <v>79.894179105758667</v>
-      </c>
-      <c r="F5">
-        <v>74.603176116943359</v>
-      </c>
-      <c r="G5">
-        <v>72.751325368881226</v>
-      </c>
-      <c r="H5">
-        <v>73.809522390365601</v>
-      </c>
-      <c r="I5">
-        <v>78.779840469360352</v>
-      </c>
-      <c r="J5">
-        <v>78.249335289001465</v>
-      </c>
-      <c r="K5">
-        <v>75.066310167312622</v>
-      </c>
-      <c r="L5">
-        <v>73.740053176879883</v>
-      </c>
-      <c r="M5">
-        <v>75.066310167312622</v>
-      </c>
-      <c r="N5">
-        <v>75.735687613487244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="I6">
+        <v>81.697613000869751</v>
+      </c>
+      <c r="J6">
+        <v>81.167107820510864</v>
+      </c>
+      <c r="K6">
+        <v>79.310345649719238</v>
+      </c>
+      <c r="L6">
+        <v>80.371350049972534</v>
+      </c>
+      <c r="M6">
+        <v>79.045093059539795</v>
+      </c>
+      <c r="N6">
+        <v>79.656505584716797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>76.190477609634399</v>
-      </c>
-      <c r="E6">
-        <v>73.809522390365601</v>
-      </c>
-      <c r="F6">
+      <c r="D7">
+        <v>82.275134325027466</v>
+      </c>
+      <c r="E7">
+        <v>81.746029853820801</v>
+      </c>
+      <c r="F7">
+        <v>81.216931343078613</v>
+      </c>
+      <c r="G7">
         <v>76.455026865005493</v>
       </c>
-      <c r="G6">
-        <v>73.015874624252319</v>
-      </c>
-      <c r="H6">
-        <v>74.867725372314453</v>
-      </c>
-      <c r="I6">
-        <v>73.209547996520996</v>
-      </c>
-      <c r="J6">
-        <v>76.923078298568726</v>
-      </c>
-      <c r="K6">
-        <v>77.188330888748169</v>
-      </c>
-      <c r="L6">
-        <v>75.331562757492065</v>
-      </c>
-      <c r="M6">
-        <v>78.779840469360352</v>
-      </c>
-      <c r="N6">
-        <v>75.577098727226257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>74.867725372314453</v>
-      </c>
-      <c r="E7">
-        <v>77.777779102325439</v>
-      </c>
-      <c r="F7">
-        <v>66.137564182281494</v>
-      </c>
-      <c r="G7">
-        <v>66.137564182281494</v>
-      </c>
       <c r="H7">
-        <v>75.396823883056641</v>
+        <v>84.391534328460693</v>
       </c>
       <c r="I7">
-        <v>61.007958650588989</v>
+        <v>77.718830108642578</v>
       </c>
       <c r="J7">
-        <v>76.923078298568726</v>
+        <v>58.88594388961792</v>
       </c>
       <c r="K7">
-        <v>75.596815347671509</v>
+        <v>82.228118181228638</v>
       </c>
       <c r="L7">
-        <v>78.249335289001465</v>
+        <v>82.228118181228638</v>
       </c>
       <c r="M7">
-        <v>69.496023654937744</v>
+        <v>85.676389932632446</v>
       </c>
       <c r="N7">
-        <v>72.159066796302795</v>
+        <v>79.282205700874329</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1335,81 +1346,81 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>77.513229846954346</v>
+      </c>
+      <c r="E8">
+        <v>76.984125375747681</v>
+      </c>
+      <c r="F8">
+        <v>77.777779102325439</v>
+      </c>
+      <c r="G8">
+        <v>77.513229846954346</v>
+      </c>
+      <c r="H8">
+        <v>81.481480598449707</v>
+      </c>
+      <c r="I8">
+        <v>80.371350049972534</v>
+      </c>
+      <c r="J8">
+        <v>80.901855230331421</v>
+      </c>
+      <c r="K8">
+        <v>79.045093059539795</v>
+      </c>
+      <c r="L8">
+        <v>81.962865591049194</v>
+      </c>
+      <c r="M8">
+        <v>76.923078298568726</v>
+      </c>
+      <c r="N8">
+        <v>79.047408699989319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>79.100531339645386</v>
+      </c>
+      <c r="E9">
+        <v>82.804232835769653</v>
+      </c>
+      <c r="F9">
+        <v>80.158728361129761</v>
+      </c>
+      <c r="G9">
         <v>76.190477609634399</v>
       </c>
-      <c r="E8">
-        <v>71.693122386932373</v>
-      </c>
-      <c r="F8">
-        <v>72.486770153045654</v>
-      </c>
-      <c r="G8">
+      <c r="H9">
         <v>65.608465671539307</v>
       </c>
-      <c r="H8">
-        <v>70.370370149612427</v>
-      </c>
-      <c r="I8">
-        <v>75.066310167312622</v>
-      </c>
-      <c r="J8">
-        <v>70.822280645370483</v>
-      </c>
-      <c r="K8">
-        <v>72.413790225982666</v>
-      </c>
-      <c r="L8">
-        <v>63.925731182098389</v>
-      </c>
-      <c r="M8">
-        <v>77.984082698822021</v>
-      </c>
-      <c r="N8">
-        <v>71.656140089035034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>79.365080595016479</v>
-      </c>
-      <c r="E9">
-        <v>63.492065668106079</v>
-      </c>
-      <c r="F9">
-        <v>63.227510452270508</v>
-      </c>
-      <c r="G9">
-        <v>77.248674631118774</v>
-      </c>
-      <c r="H9">
-        <v>63.227510452270508</v>
-      </c>
       <c r="I9">
-        <v>70.822280645370483</v>
+        <v>83.02386999130249</v>
       </c>
       <c r="J9">
-        <v>68.435013294219971</v>
+        <v>80.106103420257568</v>
       </c>
       <c r="K9">
-        <v>77.718830108642578</v>
+        <v>79.045093059539795</v>
       </c>
       <c r="L9">
-        <v>62.599468231201172</v>
+        <v>82.493370771408081</v>
       </c>
       <c r="M9">
-        <v>75.066310167312622</v>
+        <v>80.901855230331421</v>
       </c>
       <c r="N9">
-        <v>70.120274424552917</v>
+        <v>78.943272829055786</v>
       </c>
     </row>
   </sheetData>
@@ -1422,402 +1433,402 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>81.216931343078613</v>
+      </c>
+      <c r="E2">
+        <v>84.391534328460693</v>
+      </c>
+      <c r="F2">
+        <v>82.010579109191895</v>
+      </c>
+      <c r="G2">
+        <v>83.862435817718506</v>
+      </c>
+      <c r="H2">
+        <v>83.068782091140747</v>
+      </c>
+      <c r="I2">
+        <v>79.840850830078125</v>
+      </c>
+      <c r="J2">
+        <v>82.493370771408081</v>
+      </c>
+      <c r="K2">
+        <v>79.310345649719238</v>
+      </c>
+      <c r="L2">
+        <v>82.758623361587524</v>
+      </c>
+      <c r="M2">
+        <v>83.289122581481934</v>
+      </c>
+      <c r="N2">
+        <v>82.224257588386536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>80.687832832336426</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>81.481480598449707</v>
+      </c>
+      <c r="E3">
         <v>81.746029853820801</v>
       </c>
-      <c r="F2">
-        <v>79.365080595016479</v>
-      </c>
-      <c r="G2">
-        <v>79.100531339645386</v>
-      </c>
-      <c r="H2">
-        <v>80.687832832336426</v>
-      </c>
-      <c r="I2">
-        <v>82.228118181228638</v>
-      </c>
-      <c r="J2">
-        <v>80.901855230331421</v>
-      </c>
-      <c r="K2">
-        <v>81.432360410690308</v>
-      </c>
-      <c r="L2">
-        <v>80.901855230331421</v>
-      </c>
-      <c r="M2">
-        <v>80.106103420257568</v>
-      </c>
-      <c r="N2">
-        <v>80.715759992599487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>77.248674631118774</v>
-      </c>
-      <c r="E3">
-        <v>79.629629850387573</v>
-      </c>
       <c r="F3">
-        <v>78.306877613067627</v>
+        <v>82.010579109191895</v>
       </c>
       <c r="G3">
-        <v>78.835976123809814</v>
+        <v>83.597886562347412</v>
       </c>
       <c r="H3">
-        <v>81.481480598449707</v>
+        <v>80.95238208770752</v>
       </c>
       <c r="I3">
         <v>80.371350049972534</v>
       </c>
       <c r="J3">
-        <v>83.02386999130249</v>
+        <v>83.289122581481934</v>
       </c>
       <c r="K3">
-        <v>80.901855230331421</v>
+        <v>81.697613000869751</v>
       </c>
       <c r="L3">
-        <v>81.962865591049194</v>
+        <v>84.084880352020264</v>
       </c>
       <c r="M3">
-        <v>80.636602640151978</v>
+        <v>79.840850830078125</v>
       </c>
       <c r="N3">
-        <v>80.239918231964111</v>
+        <v>81.907217502593994</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>80.687832832336426</v>
+        <v>82.010579109191895</v>
       </c>
       <c r="E4">
-        <v>80.687832832336426</v>
+        <v>81.481480598449707</v>
       </c>
       <c r="F4">
-        <v>79.365080595016479</v>
+        <v>85.185188055038452</v>
       </c>
       <c r="G4">
-        <v>77.248674631118774</v>
+        <v>79.629629850387573</v>
       </c>
       <c r="H4">
-        <v>80.95238208770752</v>
+        <v>82.53968358039856</v>
       </c>
       <c r="I4">
         <v>79.575598239898682</v>
       </c>
       <c r="J4">
-        <v>79.045093059539795</v>
+        <v>81.432360410690308</v>
       </c>
       <c r="K4">
-        <v>79.045093059539795</v>
+        <v>80.636602640151978</v>
       </c>
       <c r="L4">
-        <v>81.432360410690308</v>
+        <v>82.493370771408081</v>
       </c>
       <c r="M4">
-        <v>81.167107820510864</v>
+        <v>82.228118181228638</v>
       </c>
       <c r="N4">
-        <v>79.920705556869507</v>
+        <v>81.721261143684387</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>0</v>
+      <c r="A5" s="2">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>80.158728361129761</v>
       </c>
       <c r="E5">
+        <v>81.746029853820801</v>
+      </c>
+      <c r="F5">
+        <v>83.597886562347412</v>
+      </c>
+      <c r="G5">
+        <v>78.042328357696533</v>
+      </c>
+      <c r="H5">
+        <v>83.862435817718506</v>
+      </c>
+      <c r="I5">
+        <v>80.371350049972534</v>
+      </c>
+      <c r="J5">
+        <v>83.81962776184082</v>
+      </c>
+      <c r="K5">
+        <v>80.901855230331421</v>
+      </c>
+      <c r="L5">
+        <v>82.493370771408081</v>
+      </c>
+      <c r="M5">
+        <v>81.697613000869751</v>
+      </c>
+      <c r="N5">
+        <v>81.669122576713562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>79.100531339645386</v>
+      </c>
+      <c r="E6">
+        <v>80.423277616500854</v>
+      </c>
+      <c r="F6">
         <v>82.53968358039856</v>
       </c>
-      <c r="F5">
-        <v>80.423277616500854</v>
-      </c>
-      <c r="G5">
-        <v>77.513229846954346</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>81.746029853820801</v>
+      </c>
+      <c r="H6">
+        <v>82.804232835769653</v>
+      </c>
+      <c r="I6">
+        <v>83.81962776184082</v>
+      </c>
+      <c r="J6">
+        <v>81.697613000869751</v>
+      </c>
+      <c r="K6">
+        <v>82.758623361587524</v>
+      </c>
+      <c r="L6">
+        <v>80.371350049972534</v>
+      </c>
+      <c r="M6">
+        <v>81.167107820510864</v>
+      </c>
+      <c r="N6">
+        <v>81.642807722091675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>85.449737310409546</v>
+      </c>
+      <c r="E7">
+        <v>82.010579109191895</v>
+      </c>
+      <c r="F7">
+        <v>79.894179105758667</v>
+      </c>
+      <c r="G7">
+        <v>81.746029853820801</v>
+      </c>
+      <c r="H7">
         <v>83.597886562347412</v>
       </c>
-      <c r="I5">
+      <c r="I7">
+        <v>79.575598239898682</v>
+      </c>
+      <c r="J7">
+        <v>81.962865591049194</v>
+      </c>
+      <c r="K7">
         <v>79.310345649719238</v>
       </c>
-      <c r="J5">
-        <v>79.575598239898682</v>
-      </c>
-      <c r="K5">
-        <v>78.514587879180908</v>
-      </c>
-      <c r="L5">
-        <v>74.801063537597656</v>
-      </c>
-      <c r="M5">
-        <v>79.840850830078125</v>
-      </c>
-      <c r="N5">
-        <v>79.627525210380554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>81.216931343078613</v>
-      </c>
-      <c r="E6">
-        <v>76.719576120376587</v>
-      </c>
-      <c r="F6">
-        <v>81.746029853820801</v>
-      </c>
-      <c r="G6">
+      <c r="L7">
+        <v>82.228118181228638</v>
+      </c>
+      <c r="M7">
+        <v>80.371350049972534</v>
+      </c>
+      <c r="N7">
+        <v>81.614668965339661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>80.95238208770752</v>
       </c>
-      <c r="H6">
-        <v>76.719576120376587</v>
-      </c>
-      <c r="I6">
-        <v>81.432360410690308</v>
-      </c>
-      <c r="J6">
-        <v>80.106103420257568</v>
-      </c>
-      <c r="K6">
-        <v>78.249335289001465</v>
-      </c>
-      <c r="L6">
-        <v>77.188330888748169</v>
-      </c>
-      <c r="M6">
-        <v>80.636602640151978</v>
-      </c>
-      <c r="N6">
-        <v>79.496722817420959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>78.042328357696533</v>
-      </c>
-      <c r="E7">
-        <v>76.455026865005493</v>
-      </c>
-      <c r="F7">
-        <v>82.275134325027466</v>
-      </c>
-      <c r="G7">
-        <v>78.571426868438721</v>
-      </c>
-      <c r="H7">
-        <v>78.042328357696533</v>
-      </c>
-      <c r="I7">
-        <v>78.249335289001465</v>
-      </c>
-      <c r="J7">
-        <v>78.249335289001465</v>
-      </c>
-      <c r="K7">
-        <v>81.432360410690308</v>
-      </c>
-      <c r="L7">
-        <v>76.657825708389282</v>
-      </c>
-      <c r="M7">
-        <v>79.045093059539795</v>
-      </c>
-      <c r="N7">
-        <v>78.702019453048706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>80.158728361129761</v>
-      </c>
       <c r="E8">
-        <v>80.158728361129761</v>
+        <v>78.835976123809814</v>
       </c>
       <c r="F8">
         <v>80.687832832336426</v>
       </c>
       <c r="G8">
-        <v>79.100531339645386</v>
+        <v>79.629629850387573</v>
       </c>
       <c r="H8">
-        <v>80.158728361129761</v>
+        <v>82.010579109191895</v>
       </c>
       <c r="I8">
-        <v>75.331562757492065</v>
+        <v>78.779840469360352</v>
       </c>
       <c r="J8">
-        <v>74.27055835723877</v>
+        <v>83.81962776184082</v>
       </c>
       <c r="K8">
-        <v>79.310345649719238</v>
+        <v>81.962865591049194</v>
       </c>
       <c r="L8">
-        <v>79.575598239898682</v>
+        <v>83.81962776184082</v>
       </c>
       <c r="M8">
-        <v>76.127320528030396</v>
+        <v>84.61538553237915</v>
       </c>
       <c r="N8">
-        <v>78.487993478775024</v>
+        <v>81.511374711990356</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>4</v>
+      <c r="A9" s="2">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>64.550262689590454</v>
+        <v>81.216931343078613</v>
       </c>
       <c r="E9">
-        <v>81.481480598449707</v>
+        <v>80.423277616500854</v>
       </c>
       <c r="F9">
-        <v>80.158728361129761</v>
+        <v>82.804232835769653</v>
       </c>
       <c r="G9">
-        <v>78.306877613067627</v>
+        <v>83.597886562347412</v>
       </c>
       <c r="H9">
-        <v>79.629629850387573</v>
+        <v>77.777779102325439</v>
       </c>
       <c r="I9">
-        <v>76.657825708389282</v>
+        <v>78.514587879180908</v>
       </c>
       <c r="J9">
-        <v>75.331562757492065</v>
+        <v>86.472147703170776</v>
       </c>
       <c r="K9">
-        <v>80.636602640151978</v>
+        <v>80.371350049972534</v>
       </c>
       <c r="L9">
-        <v>80.901855230331421</v>
+        <v>78.779840469360352</v>
       </c>
       <c r="M9">
-        <v>82.758623361587524</v>
+        <v>84.61538553237915</v>
       </c>
       <c r="N9">
-        <v>78.041344881057739</v>
+        <v>81.457341909408569</v>
       </c>
     </row>
   </sheetData>
